--- a/20160808-vikings2016/builds/production/data/maindata.xlsx
+++ b/20160808-vikings2016/builds/production/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="passing" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="89">
   <si>
     <t>week</t>
   </si>
@@ -216,12 +217,84 @@
   <si>
     <t>Star Tribune reporting</t>
   </si>
+  <si>
+    <t>NFL week</t>
+  </si>
+  <si>
+    <t>Vikings opponent for the week</t>
+  </si>
+  <si>
+    <t>Whether game was Home or Away</t>
+  </si>
+  <si>
+    <t>Winner of game</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>@ or vs</t>
+  </si>
+  <si>
+    <t>Game final score</t>
+  </si>
+  <si>
+    <t>Vikings QB for the game</t>
+  </si>
+  <si>
+    <t>Section of field QB passed to</t>
+  </si>
+  <si>
+    <t>Passing completions on left side of the field</t>
+  </si>
+  <si>
+    <t>Passing attempts on left side of the field</t>
+  </si>
+  <si>
+    <t>Passing yards on left side of the field</t>
+  </si>
+  <si>
+    <t>Interceptions on left side of the field</t>
+  </si>
+  <si>
+    <t>Passing touchdowns on left side of the field</t>
+  </si>
+  <si>
+    <t>Passing completions in middle of the field</t>
+  </si>
+  <si>
+    <t>Passing attempts in middle of the field</t>
+  </si>
+  <si>
+    <t>Passing yards in middle of the field</t>
+  </si>
+  <si>
+    <t>Interceptions in middle of the field</t>
+  </si>
+  <si>
+    <t>Passing touchdowns in middle of the field</t>
+  </si>
+  <si>
+    <t>Passing completions on right side of the field</t>
+  </si>
+  <si>
+    <t>Passing attempts on right side of the field</t>
+  </si>
+  <si>
+    <t>Passing yards on right side of the field</t>
+  </si>
+  <si>
+    <t>Interceptions on right side of the field</t>
+  </si>
+  <si>
+    <t>Passing touchdowns on right side of the field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,6 +313,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -278,18 +363,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,7 +729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:W53"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -642,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -20424,6 +20530,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -20436,7 +20543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -20485,4 +20592,214 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>